--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Nâng cấp khay sim, nâng cấp FW, thay vỏ</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -670,6 +673,30 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,31 +709,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,7 +1019,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,43 +1051,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1129,58 +1132,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1205,23 +1208,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1258,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1294,7 +1297,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1336,9 @@
         <v>73</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1381,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1405,7 +1410,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1434,7 +1439,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1468,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1494,7 +1499,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1557,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1586,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2812,6 +2817,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2823,13 +2835,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2873,43 +2878,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2954,58 +2959,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3030,23 +3035,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3077,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3103,7 +3108,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +3137,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +3166,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3190,7 +3195,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3219,7 +3224,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3248,7 +3253,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3279,7 +3284,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3308,7 +3313,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3371,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4597,13 +4602,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4615,6 +4613,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180115 </t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1054,7 @@
     <col min="13" max="13" width="58" style="20" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
     <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
@@ -1234,7 +1249,9 @@
       <c r="B6" s="37">
         <v>44324</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44326</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>67</v>
       </c>
@@ -1246,17 +1263,37 @@
         <v>68</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T6" s="64"/>
       <c r="U6" s="81" t="s">
         <v>18</v>
@@ -1273,7 +1310,9 @@
       <c r="B7" s="37">
         <v>44324</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44326</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>67</v>
       </c>
@@ -1285,17 +1324,37 @@
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T7" s="64"/>
       <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
@@ -1310,7 +1369,9 @@
       <c r="B8" s="37">
         <v>44324</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44326</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -1331,7 +1392,9 @@
       <c r="K8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" s="40" t="s">
         <v>73</v>
       </c>
@@ -1769,7 +1832,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2174,7 +2237,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2238,7 +2301,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -9,24 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102SE" sheetId="28" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="28" r:id="rId1"/>
+    <sheet name="TG102SE" sheetId="29" r:id="rId2"/>
+    <sheet name="TG102" sheetId="30" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -272,6 +278,15 @@
   <si>
     <t>Lock: 125.212.203.114,16565</t>
   </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>TG102</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,9 +703,30 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,21 +746,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1147,58 +1168,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1223,23 +1244,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1356,7 +1377,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1425,12 +1446,20 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>869627031841414</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="51"/>
       <c r="J9" s="40"/>
@@ -1444,7 +1473,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1454,12 +1483,20 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39">
+        <v>864811036931298</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="51"/>
       <c r="J10" s="40"/>
@@ -1473,7 +1510,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1483,12 +1520,20 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868926033950178</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="51"/>
       <c r="J11" s="40"/>
@@ -1502,7 +1547,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1576,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1562,7 +1607,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1636,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1665,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1694,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2905,6 +2950,3612 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866104024656145</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="73"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="73"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="73"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="73"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="73"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="73"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="73"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="73"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="39">
+        <v>12896004920051</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="73"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866762029430749</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="39">
+        <v>866762029427422</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="73"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="73"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="73"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="73"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="73"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="73"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="73"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2941,43 +6592,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3022,58 +6673,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3098,23 +6749,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,7 +6791,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3171,7 +6822,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3200,7 +6851,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3229,7 +6880,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3258,7 +6909,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3287,7 +6938,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3316,7 +6967,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3347,7 +6998,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3376,7 +7027,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3405,7 +7056,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +7085,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,60 @@
   </si>
   <si>
     <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>012896004920051</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa nặng</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>X.3.0.0</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>Chập MCU</t>
+  </si>
+  <si>
+    <t>Thay MCU, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Giữ lại lấy linh kiện</t>
   </si>
 </sst>
 </file>
@@ -363,7 +417,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -709,6 +769,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,31 +808,28 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1168,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1328,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1377,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1436,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1533,9 @@
       <c r="B9" s="37">
         <v>44329</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44330</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>67</v>
       </c>
@@ -1461,19 +1547,37 @@
         <v>68</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1486,7 +1590,9 @@
       <c r="B10" s="37">
         <v>44329</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44330</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
@@ -1498,56 +1604,88 @@
         <v>68</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="89">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="90">
         <v>44329</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="92">
         <v>868926033950178</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
+      <c r="F11" s="91"/>
+      <c r="G11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
+      <c r="H11" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="89"/>
+      <c r="O11" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="89"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1576,7 +1714,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1607,7 +1745,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1774,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1665,7 +1803,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1832,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1845,7 +1983,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1877,7 +2015,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2154,7 +2292,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2282,7 +2420,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2346,7 +2484,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2953,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2986,43 +3124,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3067,58 +3205,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3143,23 +3281,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,7 +3307,9 @@
       <c r="B6" s="37">
         <v>44329</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44330</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>80</v>
       </c>
@@ -3181,19 +3321,37 @@
         <v>68</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3224,7 +3382,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3411,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +3440,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3311,7 +3469,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3498,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3369,7 +3527,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3400,7 +3558,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3429,7 +3587,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3616,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3487,7 +3645,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3670,7 +3828,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3787,7 +3945,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -4075,7 +4233,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4139,7 +4297,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4746,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4779,43 +4937,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4860,58 +5018,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4936,23 +5094,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4962,31 +5120,49 @@
       <c r="B6" s="37">
         <v>44329</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44330</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="39">
-        <v>12896004920051</v>
+      <c r="E6" s="75" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>89</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5001,7 +5177,9 @@
       <c r="B7" s="37">
         <v>44329</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44330</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>81</v>
       </c>
@@ -5015,19 +5193,37 @@
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5040,7 +5236,9 @@
       <c r="B8" s="37">
         <v>44329</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44330</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>81</v>
       </c>
@@ -5054,19 +5252,37 @@
         <v>68</v>
       </c>
       <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5095,7 +5311,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5124,7 +5340,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5153,7 +5369,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5182,7 +5398,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5213,7 +5429,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5242,7 +5458,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5271,7 +5487,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5300,7 +5516,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5419,7 +5635,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5888,7 +6104,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5920,7 +6136,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5952,7 +6168,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6592,43 +6808,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6673,58 +6889,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6749,23 +6965,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6791,7 +7007,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6822,7 +7038,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6851,7 +7067,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6880,7 +7096,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6909,7 +7125,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6938,7 +7154,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6967,7 +7183,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6998,7 +7214,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7027,7 +7243,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7056,7 +7272,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7085,7 +7301,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="28" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -772,9 +772,45 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,42 +830,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1252,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1328,23 +1328,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1461,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>72</v>
       </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1634,58 +1634,58 @@
         <v>72</v>
       </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="76">
         <v>6</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="77">
         <v>44329</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="79">
         <v>868926033950178</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="91" t="s">
+      <c r="I11" s="81"/>
+      <c r="J11" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91" t="s">
+      <c r="K11" s="76"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="89"/>
-      <c r="O11" s="91" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="89" t="s">
+      <c r="P11" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="95" t="s">
+      <c r="Q11" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="91" t="s">
+      <c r="R11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="89"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1695,13 +1695,21 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="37">
+        <v>44336</v>
+      </c>
       <c r="C12" s="68"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033915015</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="38"/>
       <c r="I12" s="57"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
@@ -1714,7 +1722,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1726,13 +1734,21 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="37">
+        <v>44336</v>
+      </c>
       <c r="C13" s="68"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033948958</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="38"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1745,7 +1761,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1755,13 +1771,21 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="37">
+        <v>44336</v>
+      </c>
       <c r="C14" s="68"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033917474</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="38"/>
       <c r="I14" s="51"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
@@ -1774,7 +1798,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1784,13 +1808,21 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="37">
+        <v>44336</v>
+      </c>
       <c r="C15" s="68"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
+      <c r="D15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="39">
+        <v>869627031772791</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="38"/>
       <c r="I15" s="57"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
@@ -1803,7 +1835,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1864,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3063,13 +3095,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3081,6 +3106,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3124,43 +3156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3205,58 +3237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3281,23 +3313,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,7 +3383,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3382,7 +3414,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3411,7 +3443,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3472,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3469,7 +3501,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3498,7 +3530,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3527,7 +3559,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3558,7 +3590,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3587,7 +3619,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +3648,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3677,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4876,6 +4908,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4887,13 +4926,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4904,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -4937,43 +4969,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5018,58 +5050,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5094,23 +5126,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5194,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5223,7 +5255,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5282,7 +5314,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5311,7 +5343,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5340,7 +5372,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5369,7 +5401,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5398,7 +5430,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5429,7 +5461,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5458,7 +5490,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5487,7 +5519,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5516,7 +5548,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6747,6 +6779,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6758,13 +6797,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6808,43 +6840,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6889,58 +6921,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6965,23 +6997,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,7 +7039,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7038,7 +7070,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7067,7 +7099,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7096,7 +7128,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7125,7 +7157,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7154,7 +7186,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7183,7 +7215,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7214,7 +7246,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7243,7 +7275,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7272,7 +7304,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7301,7 +7333,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8532,6 +8564,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8543,13 +8582,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -793,6 +793,30 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,31 +829,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1252,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1328,23 +1328,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1461,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>72</v>
       </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>72</v>
       </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1761,7 +1761,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1786,9 +1786,13 @@
         <v>68</v>
       </c>
       <c r="H14" s="38"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="1"/>
@@ -1798,7 +1802,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1839,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1868,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3095,6 +3099,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3106,13 +3117,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3156,43 +3160,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3237,58 +3241,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3313,23 +3317,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3387,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3414,7 +3418,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3447,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3505,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +3563,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3590,7 +3594,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3619,7 +3623,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3648,7 +3652,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3677,7 +3681,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4908,13 +4912,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4926,6 +4923,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4969,43 +4973,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5050,58 +5054,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5126,23 +5130,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5255,7 +5259,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5314,7 +5318,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5343,7 +5347,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5372,7 +5376,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5401,7 +5405,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5461,7 +5465,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5490,7 +5494,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5519,7 +5523,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5548,7 +5552,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6779,13 +6783,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6797,6 +6794,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6840,43 +6844,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6921,58 +6925,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6997,23 +7001,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,7 +7043,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7070,7 +7074,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7099,7 +7103,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7157,7 +7161,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7186,7 +7190,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7215,7 +7219,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7246,7 +7250,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7275,7 +7279,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7304,7 +7308,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7333,7 +7337,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8564,13 +8568,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8582,6 +8579,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,24 @@
   </si>
   <si>
     <t>Giữ lại lấy linh kiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý phần nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -793,9 +811,24 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,21 +848,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1189,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1252,58 +1270,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1328,23 +1346,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1418,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1461,7 +1479,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1538,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>72</v>
       </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>72</v>
       </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1690,7 @@
       </c>
       <c r="N11" s="76"/>
       <c r="O11" s="78" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="P11" s="76" t="s">
         <v>71</v>
@@ -1685,7 +1703,7 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1698,7 +1716,9 @@
       <c r="B12" s="37">
         <v>44336</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="37">
+        <v>44337</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
@@ -1710,19 +1730,37 @@
         <v>68</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1737,7 +1775,9 @@
       <c r="B13" s="37">
         <v>44336</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="37">
+        <v>44337</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
@@ -1749,19 +1789,37 @@
         <v>68</v>
       </c>
       <c r="H13" s="38"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T13" s="64"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1774,7 +1832,9 @@
       <c r="B14" s="37">
         <v>44336</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="37">
+        <v>44337</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
@@ -1789,20 +1849,32 @@
       <c r="I14" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1887,9 @@
       <c r="B15" s="37">
         <v>44336</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="37">
+        <v>44337</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
@@ -1827,19 +1901,37 @@
         <v>68</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1960,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +2079,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2019,7 +2111,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2051,7 +2143,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2264,7 +2356,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2328,7 +2420,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2456,7 +2548,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2488,7 +2580,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2520,7 +2612,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2638,7 +2730,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2873,7 +2965,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -3099,13 +3191,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3117,6 +3202,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3160,43 +3252,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3241,58 +3333,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3317,23 +3409,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,7 +3479,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3418,7 +3510,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3447,7 +3539,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3476,7 +3568,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3597,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3626,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3563,7 +3655,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3594,7 +3686,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3623,7 +3715,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3652,7 +3744,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3773,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4912,6 +5004,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4923,13 +5022,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4973,43 +5065,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5054,58 +5146,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5130,23 +5222,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,7 +5290,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5259,7 +5351,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5318,7 +5410,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5439,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5376,7 +5468,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5497,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5526,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5465,7 +5557,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5586,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +5615,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5644,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6783,6 +6875,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6794,13 +6893,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6844,43 +6936,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6925,58 +7017,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7001,23 +7093,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7043,7 +7135,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7074,7 +7166,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7103,7 +7195,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7132,7 +7224,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7161,7 +7253,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7190,7 +7282,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7219,7 +7311,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7250,7 +7342,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7279,7 +7371,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7308,7 +7400,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7337,7 +7429,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8568,6 +8660,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8579,13 +8678,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_LapDat.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="28" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="29" r:id="rId2"/>
-    <sheet name="TG102" sheetId="30" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="28" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="29" r:id="rId3"/>
+    <sheet name="TG102" sheetId="30" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +361,51 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector</t>
+  </si>
+  <si>
+    <t>ID: 202105191407736</t>
+  </si>
+  <si>
+    <t>124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>Thiết bị không cấu hình được trên terminal</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp</t>
+  </si>
+  <si>
+    <t>ID: 202103261225338</t>
+  </si>
+  <si>
+    <t>Thiết bị  hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Xử lý khay sim</t>
   </si>
 </sst>
 </file>
@@ -563,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,6 +858,27 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1156,2070 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="48"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="49"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="49"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44324</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44326</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="39">
-        <v>864811031222834</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="64"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44324</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44326</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="39">
-        <v>869627031844897</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="64"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44324</v>
-      </c>
-      <c r="C8" s="37">
-        <v>44326</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="39">
-        <v>864811031264125</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="64"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44329</v>
-      </c>
-      <c r="C9" s="37">
-        <v>44330</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="39">
-        <v>869627031841414</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="64"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37">
-        <v>44329</v>
-      </c>
-      <c r="C10" s="37">
-        <v>44330</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="39">
-        <v>864811036931298</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="64"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
-        <v>6</v>
-      </c>
-      <c r="B11" s="77">
-        <v>44329</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="79">
-        <v>868926033950178</v>
-      </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="76"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="76"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="64"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="37">
-        <v>44336</v>
-      </c>
-      <c r="C12" s="37">
-        <v>44337</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868926033915015</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="64"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="37">
-        <v>44336</v>
-      </c>
-      <c r="C13" s="37">
-        <v>44337</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868926033948958</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="64"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37">
-        <v>44336</v>
-      </c>
-      <c r="C14" s="37">
-        <v>44337</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868926033917474</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37">
-        <v>44336</v>
-      </c>
-      <c r="C15" s="37">
-        <v>44337</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="39">
-        <v>869627031772791</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="64"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="64"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="50"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="50"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>11</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -3252,43 +1258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3333,99 +1339,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="94"/>
+      <c r="K5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,36 +1439,34 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44329</v>
+        <v>44342</v>
       </c>
       <c r="C6" s="37">
-        <v>44330</v>
+        <v>44343</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>866104024656145</v>
+        <v>860157040231166</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="51" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>99</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -3471,21 +1475,21 @@
       <c r="P6" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="Q6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="84"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3493,28 +1497,28 @@
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="84"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3522,39 +1526,39 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="51"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="61"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73"/>
+      <c r="W8" s="84"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="2"/>
       <c r="I9" s="51"/>
       <c r="J9" s="40"/>
@@ -3564,26 +1568,26 @@
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="84"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="2"/>
       <c r="I10" s="51"/>
       <c r="J10" s="40"/>
@@ -3593,26 +1597,26 @@
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="73"/>
+      <c r="W10" s="84"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="2"/>
       <c r="I11" s="51"/>
       <c r="J11" s="40"/>
@@ -3622,59 +1626,59 @@
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="73"/>
+      <c r="W11" s="84"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="57"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="40"/>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="73"/>
+      <c r="W12" s="84"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3682,27 +1686,27 @@
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="73"/>
+      <c r="W13" s="84"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="51"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
@@ -3711,44 +1715,44 @@
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="84"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="84"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3756,10 +1760,10 @@
       </c>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="1"/>
       <c r="I16" s="57"/>
       <c r="J16" s="1"/>
@@ -3769,15 +1773,15 @@
       <c r="N16" s="1"/>
       <c r="O16" s="40"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="73"/>
+      <c r="W16" s="84"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3802,9 +1806,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
+      <c r="U17" s="84"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="84"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3856,7 +1860,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="83" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3924,7 +1928,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3956,7 +1960,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4037,7 +2041,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="83" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -4073,7 +2077,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -4169,7 +2173,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4361,7 +2365,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4425,7 +2429,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5004,13 +3008,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5022,18 +3019,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showZeros="0" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5065,43 +3069,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5146,99 +3150,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="94"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5246,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44329</v>
+        <v>44324</v>
       </c>
       <c r="C6" s="37">
-        <v>44330</v>
+        <v>44326</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>864811031222834</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
@@ -5263,17 +3267,19 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="M6" s="40" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -5283,58 +3289,58 @@
         <v>71</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="64"/>
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <v>44329</v>
+        <v>44324</v>
       </c>
       <c r="C7" s="37">
-        <v>44330</v>
+        <v>44326</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
-        <v>866762029430749</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>82</v>
-      </c>
+        <v>869627031844897</v>
+      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="51" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40" t="s">
@@ -5344,73 +3350,2252 @@
         <v>71</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="R7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="S7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="64"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="37">
-        <v>44329</v>
+        <v>44324</v>
       </c>
       <c r="C8" s="37">
-        <v>44330</v>
+        <v>44326</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E8" s="39">
-        <v>866762029427422</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>82</v>
-      </c>
+        <v>864811031264125</v>
+      </c>
+      <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="64"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="64"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>869627031841414</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="64"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="64"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39">
+        <v>864811036931298</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="64"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
+        <v>6</v>
+      </c>
+      <c r="B11" s="77">
+        <v>44329</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="79">
+        <v>868926033950178</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="81"/>
+      <c r="J11" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="76"/>
+      <c r="O11" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="76"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="64"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033915015</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="64"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868926033948958</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="64"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="64"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033917474</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44337</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="39">
+        <v>869627031772791</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="64"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866192037782065</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="64"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="39">
+        <v>864811037291817</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="64"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="39">
+        <v>865209034352535</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="39">
+        <v>869627031845936</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>3</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>10</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>7</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>10</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>19</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866104024656145</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="73"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="39">
+        <v>864811037149643</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="39">
+        <v>202103261225338</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5439,7 +5624,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5468,7 +5653,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5497,7 +5682,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5526,7 +5711,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5557,7 +5742,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5586,7 +5771,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5615,7 +5800,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5644,7 +5829,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5763,7 +5948,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5795,7 +5980,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5827,7 +6012,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5944,7 +6129,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -6104,7 +6289,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6232,7 +6417,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6296,7 +6481,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6900,6 +7085,1903 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="73"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866762029430749</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44329</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44330</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="39">
+        <v>866762029427422</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="73"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44342</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="39">
+        <v>862118027449773</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="73"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="73"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="73"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="73"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="73"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="73"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>3</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>4</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -6936,43 +9018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7017,58 +9099,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7093,23 +9175,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7135,7 +9217,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7166,7 +9248,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7195,7 +9277,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +9306,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7253,7 +9335,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7282,7 +9364,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7311,7 +9393,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7342,7 +9424,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7371,7 +9453,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7400,7 +9482,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7429,7 +9511,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
